--- a/blood_pressure_sheet.xlsx
+++ b/blood_pressure_sheet.xlsx
@@ -8,38 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam15\Documents\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0F005-5066-4562-A672-332EE7B3E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CE7092-2590-4C1F-8A2F-7DAE594557E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{BA38A280-9CDF-47D4-AF08-B7EBCD76225B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>DATE AND TIME</t>
   </si>
   <si>
     <t>Systolic</t>
@@ -49,6 +32,18 @@
   </si>
   <si>
     <t>Pulse</t>
+  </si>
+  <si>
+    <t>08/26/21 16:39:25</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -399,16 +394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1781B1-594B-459B-ACA9-23C2122A2C11}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +419,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
